--- a/users.xlsx
+++ b/users.xlsx
@@ -15,66 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>John Doe</t>
+    <t xml:space="preserve">2016024 </t>
   </si>
   <si>
-    <t>john@doe.com</t>
+    <t>\n2031784</t>
   </si>
   <si>
-    <t>Jane Doe</t>
+    <t>2039609\n</t>
   </si>
   <si>
-    <t>jane@doe.com</t>
+    <t xml:space="preserve"> 2039682</t>
   </si>
   <si>
-    <t>Josh Doe</t>
+    <t xml:space="preserve">25111566 </t>
   </si>
   <si>
-    <t>josh@doe.com</t>
+    <t xml:space="preserve">20472814 </t>
   </si>
   <si>
-    <t>Joy Doe</t>
+    <t xml:space="preserve">27568281 </t>
   </si>
   <si>
-    <t>joy@doe.com</t>
+    <t>8967259\n</t>
   </si>
   <si>
-    <t>Janus Doe</t>
+    <t>604011o</t>
   </si>
   <si>
-    <t>janus@doe.com</t>
-  </si>
-  <si>
-    <t>Jay Doe</t>
-  </si>
-  <si>
-    <t>jay@doe.com</t>
-  </si>
-  <si>
-    <t>June Doe</t>
-  </si>
-  <si>
-    <t>june@doe.com</t>
-  </si>
-  <si>
-    <t>Julius Doe</t>
-  </si>
-  <si>
-    <t>julius@doe.com</t>
-  </si>
-  <si>
-    <t>Jess Doe</t>
-  </si>
-  <si>
-    <t>jess@doe.com</t>
-  </si>
-  <si>
-    <t>Jack Doe</t>
-  </si>
-  <si>
-    <t>jack@doe.com</t>
+    <t xml:space="preserve">6040131 </t>
   </si>
 </sst>
 </file>
@@ -413,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,112 +393,1773 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>2021909</v>
+      </c>
+      <c r="C1">
+        <v>18052120</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>12705858</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>13391925</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>17640943</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>20011280</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>8954632</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>18359614</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>20541530</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>24013597</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>2012228</v>
+      </c>
+      <c r="C10">
+        <v>23949444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>2021909</v>
+      </c>
+      <c r="C11">
+        <v>19953902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>427</v>
+      </c>
+      <c r="B12">
+        <v>2021909</v>
+      </c>
+      <c r="C12">
+        <v>6367483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>428</v>
+      </c>
+      <c r="B13">
+        <v>2021909</v>
+      </c>
+      <c r="C13">
+        <v>26190489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>429</v>
+      </c>
+      <c r="B14">
+        <v>2021909</v>
+      </c>
+      <c r="C14">
+        <v>14446741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>430</v>
+      </c>
+      <c r="B15">
+        <v>2024837</v>
+      </c>
+      <c r="C15">
+        <v>27054933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>431</v>
+      </c>
+      <c r="B16">
+        <v>2024837</v>
+      </c>
+      <c r="C16">
+        <v>19887819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>441</v>
+      </c>
+      <c r="B17">
+        <v>2021909</v>
+      </c>
+      <c r="C17">
+        <v>26646320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>442</v>
+      </c>
+      <c r="B18">
+        <v>2016989</v>
+      </c>
+      <c r="C18">
+        <v>7366730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>472</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>27302953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>488</v>
+      </c>
+      <c r="B20">
+        <v>2031783</v>
+      </c>
+      <c r="C20">
+        <v>20229206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>500</v>
+      </c>
+      <c r="B21">
+        <v>2031784</v>
+      </c>
+      <c r="C21">
+        <v>9308516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>501</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>15597227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>504</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>17516930</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>508</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>13034076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>509</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>11365450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>513</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>15388203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>515</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>29516578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>516</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>17411656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>519</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>25945912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>521</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>24923598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>543</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>18444790</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>547</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>29593093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>559</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>18982795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>567</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>27854994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>572</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>17061609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>598</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>29948643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>608</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>24284074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>609</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>21258513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>613</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>16242535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>682</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>27166950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>684</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>26074948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>685</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>25058752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>686</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>26113208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>687</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>28338762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>688</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>22326137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>689</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>24352114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>690</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>18206295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>699</v>
+      </c>
+      <c r="B48">
+        <v>2012374</v>
+      </c>
+      <c r="C48">
+        <v>18757672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>701</v>
+      </c>
+      <c r="B49">
+        <v>2012374</v>
+      </c>
+      <c r="C49">
+        <v>24168815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>728</v>
+      </c>
+      <c r="B50">
+        <v>2012374</v>
+      </c>
+      <c r="C50">
+        <v>29745594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>742</v>
+      </c>
+      <c r="B51">
+        <v>2012228</v>
+      </c>
+      <c r="C51">
+        <v>25725477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>761</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>25759318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>873</v>
+      </c>
+      <c r="B53">
+        <v>2031761</v>
+      </c>
+      <c r="C53">
+        <v>17419641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>948</v>
+      </c>
+      <c r="B54">
+        <v>2015554</v>
+      </c>
+      <c r="C54">
+        <v>18780831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>1324</v>
+      </c>
+      <c r="B55">
+        <v>6040131</v>
+      </c>
+      <c r="C55">
+        <v>26363062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>1358</v>
+      </c>
+      <c r="B56">
+        <v>2024837</v>
+      </c>
+      <c r="C56">
+        <v>25456925</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>1405</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>26676402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>1406</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>29658561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>1407</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>28074705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>1420</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>12237429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>1422</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>18662548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>1424</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>20089763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1425</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>19640953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>1426</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>20835619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>1428</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>25965159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1430</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>26796671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>1431</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>17229511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1432</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>18887079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1478</v>
+      </c>
+      <c r="B69">
+        <v>2012228</v>
+      </c>
+      <c r="C69">
+        <v>16076296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>1480</v>
+      </c>
+      <c r="B70">
+        <v>2012374</v>
+      </c>
+      <c r="C70">
+        <v>22414635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>1491</v>
+      </c>
+      <c r="B71">
+        <v>2021909</v>
+      </c>
+      <c r="C71">
+        <v>19949116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>1606</v>
+      </c>
+      <c r="B72">
+        <v>6040129</v>
+      </c>
+      <c r="C72">
+        <v>20651200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1664</v>
+      </c>
+      <c r="B73">
+        <v>2028542</v>
+      </c>
+      <c r="C73">
+        <v>22660160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>1802</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>20982281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>1942</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>15009810</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>1961</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>23706084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1962</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>21183310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1964</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>18529901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>1966</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>24979270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>1968</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>15454988</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>1970</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>19496299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>1974</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>17556749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>1976</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>22761587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>1977</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>29565623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>1979</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>26530514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>1982</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>4216352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1983</v>
+      </c>
+      <c r="B87">
+        <v>2031784</v>
+      </c>
+      <c r="C87">
+        <v>29541364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>2023</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>20659096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>2026</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>20088248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>2029</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>27098204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>2043</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>14149340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>2045</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>12577417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>2049</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>8234758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>2055</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>16403382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>2058</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>19132839</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>2061</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>12868416</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>2064</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>13089702</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>2066</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>21055225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>2069</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>19000698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>2072</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>18130923</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>2115</v>
+      </c>
+      <c r="B101">
+        <v>2039609</v>
+      </c>
+      <c r="C101">
+        <v>17612947</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>2133</v>
+      </c>
+      <c r="B102">
+        <v>2012228</v>
+      </c>
+      <c r="C102">
+        <v>24987103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>2139</v>
+      </c>
+      <c r="B103">
+        <v>2012228</v>
+      </c>
+      <c r="C103">
+        <v>23101463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>2140</v>
+      </c>
+      <c r="B104">
+        <v>2028636</v>
+      </c>
+      <c r="C104">
+        <v>31940270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>2236</v>
+      </c>
+      <c r="B105">
+        <v>2020589</v>
+      </c>
+      <c r="C105">
+        <v>28338320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>2781</v>
+      </c>
+      <c r="B106">
+        <v>2039682</v>
+      </c>
+      <c r="C106">
+        <v>30271855</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>3033</v>
+      </c>
+      <c r="B107">
+        <v>2031761</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>3157</v>
+      </c>
+      <c r="B108">
+        <v>2031761</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>3305</v>
+      </c>
+      <c r="B109">
+        <v>6040135</v>
+      </c>
+      <c r="C109">
+        <v>20539939</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>3421</v>
+      </c>
+      <c r="B110">
+        <v>2024869</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>3812</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>16823644</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>3813</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>24156899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>3814</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>16064994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>3815</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>28184548</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>3817</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>27539939</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>3818</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>30779639</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>3823</v>
+      </c>
+      <c r="B117">
+        <v>2013677</v>
+      </c>
+      <c r="C117">
+        <v>22778775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>3881</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>17398168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>3886</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>17793415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>3889</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>8830098</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>3891</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>17805208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>3896</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>7437885</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>3900</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>7507454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>3903</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>17649465</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>3905</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>17992448</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>3906</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>24320250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>3911</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>9327779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>3916</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>10033372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>3919</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>17814373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>3926</v>
+      </c>
+      <c r="B130">
+        <v>2012374</v>
+      </c>
+      <c r="C130">
+        <v>24788258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>3943</v>
+      </c>
+      <c r="B131">
+        <v>2012374</v>
+      </c>
+      <c r="C131">
+        <v>20540185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>3950</v>
+      </c>
+      <c r="B132">
+        <v>2021909</v>
+      </c>
+      <c r="C132">
+        <v>26224635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>3953</v>
+      </c>
+      <c r="B133">
+        <v>2021909</v>
+      </c>
+      <c r="C133">
+        <v>27069776</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>4024</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>12612785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>4031</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>27735384</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>4032</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>18349557</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>4033</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>25450312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>4035</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>29641608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>4038</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>25161263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>4041</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>20723758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>4043</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>26504014</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>4044</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>15671423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>4049</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>20947273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>4051</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>20710351</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>4063</v>
+      </c>
+      <c r="B145">
+        <v>2031784</v>
+      </c>
+      <c r="C145">
+        <v>30095193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>4066</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>19314095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>4124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>20703239</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>4125</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>30744963</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>4131</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>20712520</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>4132</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>24549603</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>4146</v>
+      </c>
+      <c r="B151">
+        <v>2021909</v>
+      </c>
+      <c r="C151">
+        <v>25616220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>4167</v>
+      </c>
+      <c r="B152">
+        <v>2012228</v>
+      </c>
+      <c r="C152">
+        <v>16973668</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>4181</v>
+      </c>
+      <c r="B153">
+        <v>2012374</v>
+      </c>
+      <c r="C153">
+        <v>30020242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>4186</v>
+      </c>
+      <c r="B154">
+        <v>2039609</v>
+      </c>
+      <c r="C154">
+        <v>26067839</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>4190</v>
+      </c>
+      <c r="B155">
+        <v>2012228</v>
+      </c>
+      <c r="C155">
+        <v>25800221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>4202</v>
+      </c>
+      <c r="B156">
+        <v>2012228</v>
+      </c>
+      <c r="C156">
+        <v>27649336</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>4206</v>
+      </c>
+      <c r="B157">
+        <v>2039609</v>
+      </c>
+      <c r="C157">
+        <v>30063537</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>4335</v>
+      </c>
+      <c r="B158">
+        <v>2015554</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>4477</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>25304484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>4502</v>
+      </c>
+      <c r="B160">
+        <v>2031761</v>
+      </c>
+      <c r="C160">
+        <v>28431403.0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>4721</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>18490867</v>
       </c>
     </row>
   </sheetData>
